--- a/data/trans_orig/Q23_tabaco-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.40954343876401</v>
+        <v>16.41105404688197</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.98078997246871</v>
+        <v>16.90577180875803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.65812862259323</v>
+        <v>16.66108135343289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.15282963645109</v>
+        <v>17.13689581985983</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.35526317585424</v>
+        <v>17.36788374195506</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.37867054002637</v>
+        <v>17.42548848580654</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.75114730241509</v>
+        <v>16.71476106741995</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.72401564943486</v>
+        <v>17.71231371315568</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.83860492259461</v>
+        <v>16.82713351654233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.23666839337161</v>
+        <v>17.237265320664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.82679455072081</v>
+        <v>16.84333040144866</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.50480751807915</v>
+        <v>17.4821513599932</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.04174716159575</v>
+        <v>17.04527374565167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.85299762810624</v>
+        <v>17.814701182001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.71767619351809</v>
+        <v>17.62275186013897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.06169470003833</v>
+        <v>18.04887686697586</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.2967983815976</v>
+        <v>19.16353083184956</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.22838600245504</v>
+        <v>19.23630606098722</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.70936235156876</v>
+        <v>17.72933314882901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.9993880624907</v>
+        <v>18.96147423626777</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.56890034196452</v>
+        <v>17.55655167412793</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.12598740156347</v>
+        <v>18.15098883165521</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.53592739255548</v>
+        <v>17.53708397112942</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.26275826791092</v>
+        <v>18.24322400639564</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>16.67420454379591</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.14219451801797</v>
+        <v>17.14219451801796</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>17.02497074745164</v>
@@ -817,7 +817,7 @@
         <v>17.46471285301947</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>17.3182492046956</v>
+        <v>17.31824920469561</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>16.88540635823748</v>
@@ -829,7 +829,7 @@
         <v>17.04969164167652</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>17.21981171004641</v>
+        <v>17.21981171004642</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.33879561537088</v>
+        <v>16.29548757344952</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.45323693595003</v>
+        <v>16.46435262273689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.19661930127715</v>
+        <v>16.16754330645952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.75038592862854</v>
+        <v>16.72134367926484</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.66352588299904</v>
+        <v>16.6712382208663</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.8190134742143</v>
+        <v>16.81403765968263</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.95189493616304</v>
+        <v>17.00508429724129</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.93942475852366</v>
+        <v>16.93881810562655</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.61531319054801</v>
+        <v>16.57850671248286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.71446944354865</v>
+        <v>16.73187607381027</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.66264717061247</v>
+        <v>16.69074357822252</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.93069071229217</v>
+        <v>16.92771869912366</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.31742376397298</v>
+        <v>17.25599483412851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.27226469982968</v>
+        <v>17.23750719603159</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.43882345671935</v>
+        <v>17.43250079097366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.66066542110107</v>
+        <v>17.65179205735195</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.46216845701467</v>
+        <v>17.48866019185544</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.81503105956374</v>
+        <v>17.75528050509796</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>18.19946438300732</v>
+        <v>18.2937741581637</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.75755498877065</v>
+        <v>17.74815279741797</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.22440455833575</v>
+        <v>17.21761131423636</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.31528343142335</v>
+        <v>17.33471025715748</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.55074940411099</v>
+        <v>17.53000315873208</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.55057467995467</v>
+        <v>17.5377336008636</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>19.22161078273892</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>17.05285060120335</v>
+        <v>17.05285060120336</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>16.84750881566483</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.20935548505948</v>
+        <v>16.20930773961206</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.19841267864684</v>
+        <v>16.1554061131442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.02758269270787</v>
+        <v>16.05870114343722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.94744341886191</v>
+        <v>15.94091784258914</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.31663345253969</v>
+        <v>17.3382193779977</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.47934273349186</v>
+        <v>17.48286507449703</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.98436748477175</v>
+        <v>17.9655089608632</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.34442948755368</v>
+        <v>16.38000341332773</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.47856633538476</v>
+        <v>16.49130328034765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16.5898403956048</v>
+        <v>16.56432333933811</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.51374798711403</v>
+        <v>16.46784010514205</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>16.13887665655729</v>
+        <v>16.12630716924069</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.17331234476209</v>
+        <v>17.13263700882322</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.92873187827066</v>
+        <v>16.92361611266638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.99661288684564</v>
+        <v>16.93829081010596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.81960534521386</v>
+        <v>16.84388005214289</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.10453282366973</v>
+        <v>20.00452650209672</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.30630835899412</v>
+        <v>19.42593992630001</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>21.73754125022429</v>
+        <v>22.13728024435095</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.82081848735121</v>
+        <v>17.81728965016266</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.37735388455053</v>
+        <v>17.48247633632121</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.27496124688189</v>
+        <v>17.26523089041933</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.51439690988951</v>
+        <v>17.43476602517297</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.87574971418395</v>
+        <v>16.95281861165788</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>16.43427553154461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16.51572364928207</v>
+        <v>16.51572364928208</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>17.17276513156592</v>
@@ -1101,7 +1101,7 @@
         <v>16.88617600275931</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>16.80366330009737</v>
+        <v>16.80366330009738</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.03010691188879</v>
+        <v>16.00780952872084</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.97773494926211</v>
+        <v>15.95705251590186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.17547456743989</v>
+        <v>16.17375972202898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.26482052894178</v>
+        <v>16.26643904539943</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16.75428119603524</v>
+        <v>16.77205096185165</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.03457444546064</v>
+        <v>17.05805324449127</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.24065619162863</v>
+        <v>17.23935085268272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.99638225049438</v>
+        <v>16.98438155997065</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.2892520611237</v>
+        <v>16.30602414548637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16.4065462917165</v>
+        <v>16.41300239351393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.66588180956556</v>
+        <v>16.64568086193037</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.60572288852494</v>
+        <v>16.59579366161761</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.46458141127102</v>
+        <v>16.49264281620446</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.44483399284186</v>
+        <v>16.44634312523676</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.732580385413</v>
+        <v>16.73655411645047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.76246811191745</v>
+        <v>16.77826735680385</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.65980216550663</v>
+        <v>17.59708761869762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.11771293043098</v>
+        <v>18.19226299895929</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.08280609932809</v>
+        <v>18.08358982895393</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.81020964829705</v>
+        <v>17.77530639103239</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16.68436064583553</v>
+        <v>16.69017649842711</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16.88451243255836</v>
+        <v>16.90233939325337</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.12582360709083</v>
+        <v>17.1285255736603</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.02143185557179</v>
+        <v>17.0564428919472</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>16.33794794427273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.4238286574608</v>
+        <v>16.42382865746081</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>17.62189638044208</v>
@@ -1225,7 +1225,7 @@
         <v>17.36951103913938</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>17.49886025041413</v>
+        <v>17.49886025041414</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>16.79242263747855</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.68337394147279</v>
+        <v>15.69378949455128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.03124784718146</v>
+        <v>16.05183945620735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15.95371594686882</v>
+        <v>15.91572243964381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.97516260773414</v>
+        <v>16.00390544733563</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.94570289652719</v>
+        <v>16.98179914936182</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.94952540027785</v>
+        <v>17.04239467564959</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.82470685599711</v>
+        <v>16.83841353554684</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.15223184206653</v>
+        <v>17.14676976925675</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.38081065278499</v>
+        <v>16.41385093593552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.62508907638837</v>
+        <v>16.59288545322553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.46816998368378</v>
+        <v>16.43422136602074</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.62655230345725</v>
+        <v>16.59770376947705</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.52067487642304</v>
+        <v>16.52912806877935</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.86713104226223</v>
+        <v>16.9228175870014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.85548273056943</v>
+        <v>16.81947135464675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.05793686178722</v>
+        <v>17.08130615943108</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.56444660932171</v>
+        <v>18.59499486614193</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.07770091113343</v>
+        <v>18.15934416575853</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.03939989554039</v>
+        <v>18.07393586020688</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.95595629172362</v>
+        <v>17.89550760268535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.42123122462245</v>
+        <v>17.3663048801229</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.30226565339183</v>
+        <v>17.30033282866174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.20679646837304</v>
+        <v>17.17938278658249</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.33664787344085</v>
+        <v>17.29177181379594</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>18.14925622921227</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>17.75621890596059</v>
+        <v>17.75621890596058</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>17.1871860190073</v>
@@ -1373,7 +1373,7 @@
         <v>17.53521578732325</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>17.47758586288488</v>
+        <v>17.47758586288489</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.39468891978719</v>
+        <v>15.41190333504679</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.4090411480485</v>
+        <v>15.35633586948142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15.33757421432236</v>
+        <v>15.37027062084048</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15.52966244991228</v>
+        <v>15.48555376689101</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.06916040573879</v>
+        <v>17.11090584429014</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.42184255066152</v>
+        <v>17.39776200899898</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>17.48147343731317</v>
+        <v>17.47229606784807</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>17.22370298720979</v>
+        <v>17.17257939656109</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.72378032843209</v>
+        <v>16.68550591117614</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.121827512382</v>
+        <v>17.05747199149883</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17.07388490142041</v>
+        <v>16.98060018493672</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.98502425265041</v>
+        <v>16.97788077426741</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.80208638768964</v>
+        <v>16.90860480252182</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.76600603750117</v>
+        <v>16.72147711531329</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.29518485290555</v>
+        <v>16.31942660648987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.83796622174995</v>
+        <v>17.88706516811071</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>18.34875665389158</v>
+        <v>18.37326194096513</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.23383998358846</v>
+        <v>19.28541459204621</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>19.10368425786359</v>
+        <v>19.06303128119211</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.72402832554251</v>
+        <v>18.73879322712493</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.75267976939192</v>
+        <v>17.70734218822394</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18.64921646948892</v>
+        <v>18.55157399492906</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18.24614633240501</v>
+        <v>18.21444432300656</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.276309995853</v>
+        <v>18.30347890539486</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.21864217096239</v>
+        <v>16.21627875053342</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.35352288478459</v>
+        <v>16.35333414837915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.32911036260091</v>
+        <v>16.32359579353906</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.52885959296192</v>
+        <v>16.54193109954938</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.25387187627716</v>
+        <v>17.23735081517246</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.42294469245706</v>
+        <v>17.42187718443155</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>17.41886364573596</v>
+        <v>17.45230673404733</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>17.35726504330518</v>
+        <v>17.34814707888041</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.64700949867376</v>
+        <v>16.65131323185767</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16.83098565499394</v>
+        <v>16.83308097078343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16.84204293715269</v>
+        <v>16.83815801880717</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>16.9200873931208</v>
+        <v>16.91960372913451</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.51605152885124</v>
+        <v>16.52870210731192</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.64717373498197</v>
+        <v>16.65799442848643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.66698206678306</v>
+        <v>16.66640934953088</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.89816229400642</v>
+        <v>16.90321435787153</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.7957813378606</v>
+        <v>17.76812199386272</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.99070795870879</v>
+        <v>17.97757694340226</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.95408192244444</v>
+        <v>17.94341632564503</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.76766482336729</v>
+        <v>17.77139432962472</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>16.91661889792684</v>
+        <v>16.95464626433047</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.12549663595597</v>
+        <v>17.12082673183834</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.14688983713417</v>
+        <v>17.14667114295233</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.18208078718908</v>
+        <v>17.19705961092483</v>
       </c>
     </row>
     <row r="25">
